--- a/biology/Histoire de la zoologie et de la botanique/Eric_Mjöberg/Eric_Mjöberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eric_Mjöberg/Eric_Mjöberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eric_Mj%C3%B6berg</t>
+          <t>Eric_Mjöberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eric Mjöberg (Eric Georg Mjöberg), né en 1882 et décédé en 1938, est un zoologiste et ethnologue suédois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eric_Mj%C3%B6berg</t>
+          <t>Eric_Mjöberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>mjobergi ou mjobergii sont des épithètes spécifiques rendant hommage à Eric Georg Mjöberg. Ils se rencontrent dans les noms binomiaux des espèces suivantes :
 Glaphyromorphus mjobergi, une espèce de sauriens de la famille des Scincidae,
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eric_Mj%C3%B6berg</t>
+          <t>Eric_Mjöberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1910
-Mjoberg E., 1910 : (de) Studien über mallophagen und anopluren.</t>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mjoberg E., 1910 : (de) Studien über mallophagen und anopluren.</t>
         </is>
       </c>
     </row>
